--- a/results/mp/tinybert/corona/confidence/168/stop-words-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,6 +43,9 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
@@ -52,34 +55,34 @@
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>special</t>
   </si>
   <si>
     <t>thank</t>
@@ -88,52 +91,61 @@
     <t>safe</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>energy</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -491,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,7 +514,7 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -560,13 +572,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.92</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -578,19 +590,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -602,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -610,13 +622,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7207792207792207</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C4">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -628,19 +640,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -652,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -660,13 +672,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3175965665236051</v>
+        <v>0.5993150684931506</v>
       </c>
       <c r="C5">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="D5">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -678,19 +690,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9166666666666666</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -702,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -710,13 +722,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2674418604651163</v>
+        <v>0.2151162790697674</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -728,19 +740,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>63</v>
+        <v>405</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K6">
-        <v>0.8823529411764706</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L6">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="M6">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -752,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -760,13 +772,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.25</v>
+        <v>0.1798941798941799</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -778,19 +790,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8518518518518519</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -802,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -810,13 +822,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1454545454545454</v>
+        <v>0.0992063492063492</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -828,13 +840,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>94</v>
+        <v>227</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K8">
-        <v>0.8392857142857143</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L8">
         <v>47</v>
@@ -852,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -860,13 +872,13 @@
         <v>21</v>
       </c>
       <c r="K9">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -878,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -886,13 +898,13 @@
         <v>22</v>
       </c>
       <c r="K10">
-        <v>0.7962962962962963</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L10">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="M10">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -904,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -912,13 +924,13 @@
         <v>23</v>
       </c>
       <c r="K11">
-        <v>0.7931034482758621</v>
+        <v>0.7421875</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -930,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -938,13 +950,13 @@
         <v>24</v>
       </c>
       <c r="K12">
-        <v>0.7692307692307693</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -956,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -964,13 +976,13 @@
         <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7586206896551724</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L13">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="M13">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -982,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -990,13 +1002,13 @@
         <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7450980392156863</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L14">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1008,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1016,13 +1028,13 @@
         <v>27</v>
       </c>
       <c r="K15">
-        <v>0.72</v>
+        <v>0.65625</v>
       </c>
       <c r="L15">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="M15">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1034,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1042,13 +1054,13 @@
         <v>28</v>
       </c>
       <c r="K16">
-        <v>0.684931506849315</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1060,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1068,13 +1080,13 @@
         <v>29</v>
       </c>
       <c r="K17">
-        <v>0.6666666666666666</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L17">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1086,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1094,13 +1106,13 @@
         <v>30</v>
       </c>
       <c r="K18">
-        <v>0.6538461538461539</v>
+        <v>0.6</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1112,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1120,13 +1132,13 @@
         <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6363636363636364</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L19">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="M19">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1138,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1146,13 +1158,13 @@
         <v>32</v>
       </c>
       <c r="K20">
-        <v>0.5666666666666667</v>
+        <v>0.5143603133159269</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="M20">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1164,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1172,13 +1184,13 @@
         <v>33</v>
       </c>
       <c r="K21">
-        <v>0.5600000000000001</v>
+        <v>0.5058823529411764</v>
       </c>
       <c r="L21">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="M21">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1190,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1198,13 +1210,13 @@
         <v>34</v>
       </c>
       <c r="K22">
-        <v>0.5138888888888888</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L22">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="M22">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1216,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1224,13 +1236,13 @@
         <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5116279069767442</v>
+        <v>0.4440677966101695</v>
       </c>
       <c r="L23">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="M23">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1242,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>63</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1250,13 +1262,13 @@
         <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5070422535211268</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L24">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1268,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>105</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1276,13 +1288,13 @@
         <v>37</v>
       </c>
       <c r="K25">
-        <v>0.4891304347826087</v>
+        <v>0.4</v>
       </c>
       <c r="L25">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1294,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1302,13 +1314,13 @@
         <v>38</v>
       </c>
       <c r="K26">
-        <v>0.4857142857142857</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L26">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1320,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1328,13 +1340,13 @@
         <v>39</v>
       </c>
       <c r="K27">
-        <v>0.04390243902439024</v>
+        <v>0.3723849372384937</v>
       </c>
       <c r="L27">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="M27">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1346,7 +1358,111 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>392</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28">
+        <v>0.05257270693512305</v>
+      </c>
+      <c r="L28">
+        <v>47</v>
+      </c>
+      <c r="M28">
+        <v>47</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29">
+        <v>0.02996670366259711</v>
+      </c>
+      <c r="L29">
+        <v>27</v>
+      </c>
+      <c r="M29">
+        <v>27</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30">
+        <v>0.01308411214953271</v>
+      </c>
+      <c r="L30">
+        <v>28</v>
+      </c>
+      <c r="M30">
+        <v>31</v>
+      </c>
+      <c r="N30">
+        <v>0.9</v>
+      </c>
+      <c r="O30">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31">
+        <v>0.01128668171557562</v>
+      </c>
+      <c r="L31">
+        <v>35</v>
+      </c>
+      <c r="M31">
+        <v>41</v>
+      </c>
+      <c r="N31">
+        <v>0.85</v>
+      </c>
+      <c r="O31">
+        <v>0.15</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>3066</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,30 +43,27 @@
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
@@ -79,25 +76,37 @@
     <t>positive</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>better</t>
@@ -106,28 +115,25 @@
     <t>fresh</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>help</t>
+    <t>hope</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
@@ -503,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,10 +517,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -572,13 +578,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7941176470588235</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -590,19 +596,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -614,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -622,13 +628,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7222222222222222</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>188</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>188</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -640,19 +646,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9090909090909091</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -664,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -672,13 +678,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5993150684931506</v>
+        <v>0.2116402116402116</v>
       </c>
       <c r="C5">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -690,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.8913043478260869</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -722,13 +728,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2151162790697674</v>
+        <v>0.1976744186046512</v>
       </c>
       <c r="C6">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D6">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -740,119 +746,71 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="L6">
+        <v>42</v>
+      </c>
+      <c r="M6">
+        <v>42</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L7">
+        <v>96</v>
+      </c>
+      <c r="M7">
+        <v>96</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K6">
-        <v>0.8392857142857143</v>
-      </c>
-      <c r="L6">
-        <v>94</v>
-      </c>
-      <c r="M6">
-        <v>94</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.1798941798941799</v>
-      </c>
-      <c r="C7">
-        <v>34</v>
-      </c>
-      <c r="D7">
-        <v>34</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>155</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7">
-        <v>0.8292682926829268</v>
-      </c>
-      <c r="L7">
-        <v>68</v>
-      </c>
-      <c r="M7">
-        <v>68</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.0992063492063492</v>
-      </c>
-      <c r="C8">
-        <v>25</v>
-      </c>
-      <c r="D8">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>227</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="K8">
-        <v>0.8103448275862069</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L8">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="M8">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -864,21 +822,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -890,21 +848,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7777777777777778</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -916,21 +874,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7421875</v>
+        <v>0.7734375</v>
       </c>
       <c r="L11">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M11">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -942,21 +900,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7183098591549296</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L12">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M12">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -968,21 +926,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7075471698113207</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L13">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="M13">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -994,21 +952,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L14">
         <v>26</v>
       </c>
-      <c r="K14">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L14">
-        <v>36</v>
-      </c>
       <c r="M14">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1020,21 +978,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.65625</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L15">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="M15">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1046,21 +1004,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6507936507936508</v>
+        <v>0.675</v>
       </c>
       <c r="L16">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="M16">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1072,21 +1030,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6041666666666666</v>
+        <v>0.675</v>
       </c>
       <c r="L17">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="M17">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1098,21 +1056,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1124,21 +1082,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.5531914893617021</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L19">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1150,21 +1108,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.5143603133159269</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L20">
-        <v>197</v>
+        <v>57</v>
       </c>
       <c r="M20">
-        <v>197</v>
+        <v>57</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1176,21 +1134,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>186</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5058823529411764</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L21">
-        <v>172</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>172</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1202,21 +1160,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>168</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5056179775280899</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L22">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1228,21 +1186,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.4440677966101695</v>
+        <v>0.4908616187989556</v>
       </c>
       <c r="L23">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="M23">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1254,47 +1212,47 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>164</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.410958904109589</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="M24">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>43</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4</v>
+        <v>0.4735294117647059</v>
       </c>
       <c r="L25">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="M25">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1306,21 +1264,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>39</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.3846153846153846</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M26">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1332,21 +1290,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.3723849372384937</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L27">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="M27">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1358,21 +1316,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>150</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.05257270693512305</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L28">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1384,21 +1342,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>847</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>0.02996670366259711</v>
+        <v>0.390625</v>
       </c>
       <c r="L29">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1410,59 +1368,163 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>874</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>0.01308411214953271</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L30">
         <v>28</v>
       </c>
       <c r="M30">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N30">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>2112</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31">
+        <v>0.3221757322175732</v>
+      </c>
+      <c r="L31">
+        <v>77</v>
+      </c>
+      <c r="M31">
+        <v>77</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32">
+        <v>0.03691275167785235</v>
+      </c>
+      <c r="L32">
+        <v>33</v>
+      </c>
+      <c r="M32">
+        <v>33</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K31">
-        <v>0.01128668171557562</v>
-      </c>
-      <c r="L31">
+      <c r="K33">
+        <v>0.03440621531631521</v>
+      </c>
+      <c r="L33">
+        <v>31</v>
+      </c>
+      <c r="M33">
+        <v>31</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34">
+        <v>0.01449953227315248</v>
+      </c>
+      <c r="L34">
+        <v>31</v>
+      </c>
+      <c r="M34">
+        <v>36</v>
+      </c>
+      <c r="N34">
+        <v>0.86</v>
+      </c>
+      <c r="O34">
+        <v>0.14</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35">
+        <v>0.009351821992905514</v>
+      </c>
+      <c r="L35">
+        <v>29</v>
+      </c>
+      <c r="M35">
         <v>35</v>
       </c>
-      <c r="M31">
-        <v>41</v>
-      </c>
-      <c r="N31">
-        <v>0.85</v>
-      </c>
-      <c r="O31">
-        <v>0.15</v>
-      </c>
-      <c r="P31" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q31">
-        <v>3066</v>
+      <c r="N35">
+        <v>0.83</v>
+      </c>
+      <c r="O35">
+        <v>0.17</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>3072</v>
       </c>
     </row>
   </sheetData>
